--- a/tools/BOI_exhaust_gas_loss.xlsx
+++ b/tools/BOI_exhaust_gas_loss.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Abgastemp</t>
-  </si>
-  <si>
-    <t>Luftemp</t>
+    <t>exhaustgastemp</t>
+  </si>
+  <si>
+    <t>airtemp</t>
   </si>
   <si>
     <t>A1</t>
@@ -40,7 +40,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>Luftzahl</t>
+    <t>airnumber</t>
   </si>
   <si>
     <t>v0</t>
@@ -49,13 +49,13 @@
     <t>vCO2</t>
   </si>
   <si>
-    <t>vAbgas</t>
+    <t>vexhaustgas</t>
   </si>
   <si>
     <t>vCO2_pre</t>
   </si>
   <si>
-    <t>Abgasverlust</t>
+    <t>exhaustgasloss</t>
   </si>
 </sst>
 </file>
